--- a/api_specification.xlsx
+++ b/api_specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgh75\Desktop\HoneyBottle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\HoneyBottle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EC1B1-330C-4E4D-B47B-997BBAABB241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2257AEF8-4C60-4956-AF9D-AEED7FB9D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{D754790D-8158-48F1-923E-7E430E8EF79E}"/>
+    <workbookView xWindow="7185" yWindow="1665" windowWidth="21645" windowHeight="11385" xr2:uid="{D754790D-8158-48F1-923E-7E430E8EF79E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>꿀팁게시판 글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀통 페이지 [알바꿀통]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,13 +576,13 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="78.875" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
     <col min="4" max="4" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,7 +601,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -611,7 +615,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -625,7 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -639,7 +643,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -649,11 +653,11 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -667,7 +671,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -681,7 +685,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -695,7 +699,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -709,7 +713,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -723,7 +727,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -737,7 +741,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -751,7 +755,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -765,7 +769,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -779,7 +783,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -793,7 +797,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -807,7 +811,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -821,7 +825,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -835,7 +839,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -849,7 +853,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -857,7 +861,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -865,7 +869,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -873,7 +877,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -881,7 +885,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -889,7 +893,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -897,7 +901,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -905,7 +909,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -913,7 +917,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -921,7 +925,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -929,7 +933,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -937,7 +941,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -945,7 +949,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -953,7 +957,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -961,7 +965,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -969,7 +973,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -977,7 +981,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -985,7 +989,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -993,7 +997,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -1001,7 +1005,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -1009,7 +1013,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="C40" t="s">
